--- a/abbreviated measure names.xlsx
+++ b/abbreviated measure names.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="126">
   <si>
     <t>Full Name</t>
   </si>
@@ -294,9 +294,6 @@
     <t>Sealants 6-9 yrs_N</t>
   </si>
   <si>
-    <t>Self-Mgmt Goal Rev_N</t>
-  </si>
-  <si>
     <t>Trt Plan Completion_N</t>
   </si>
   <si>
@@ -388,6 +385,15 @@
   </si>
   <si>
     <t>Caries at Recall_Goal</t>
+  </si>
+  <si>
+    <t>Self-Mgmt Goals_N</t>
+  </si>
+  <si>
+    <t>Self-Mgmt Goals_D</t>
+  </si>
+  <si>
+    <t>Self-Mgmt Goals</t>
   </si>
 </sst>
 </file>
@@ -958,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -978,7 +984,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>48</v>
@@ -986,7 +992,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>49</v>
@@ -994,7 +1000,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>32</v>
@@ -1050,7 +1056,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>54</v>
@@ -1058,7 +1064,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>55</v>
@@ -1066,7 +1072,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>35</v>
@@ -1074,7 +1080,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>56</v>
@@ -1098,7 +1104,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>58</v>
@@ -1122,7 +1128,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>60</v>
@@ -1146,7 +1152,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>62</v>
@@ -1170,7 +1176,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>64</v>
@@ -1194,7 +1200,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>66</v>
@@ -1218,10 +1224,10 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1229,7 +1235,7 @@
         <v>86</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1242,10 +1248,10 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1253,7 +1259,7 @@
         <v>87</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1266,7 +1272,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>72</v>
@@ -1290,7 +1296,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>74</v>
@@ -1314,7 +1320,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B44" t="str">
         <f>CONCATENATE("Goal_",Sheet1!A2)</f>
@@ -1323,7 +1329,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B45" t="str">
         <f>CONCATENATE("Goal_",Sheet1!A3)</f>
@@ -1332,7 +1338,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B46" t="str">
         <f>CONCATENATE("Goal_",Sheet1!A4)</f>
@@ -1341,7 +1347,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B47" t="str">
         <f>CONCATENATE("Goal_",Sheet1!A5)</f>
@@ -1350,7 +1356,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B48" t="str">
         <f>CONCATENATE("Goal_",Sheet1!A6)</f>
@@ -1359,7 +1365,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B49" t="str">
         <f>CONCATENATE("Goal_",Sheet1!A7)</f>
@@ -1368,7 +1374,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B50" t="str">
         <f>CONCATENATE("Goal_",Sheet1!A8)</f>
@@ -1377,7 +1383,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B51" t="str">
         <f>CONCATENATE("Goal_",Sheet1!A9)</f>
@@ -1386,7 +1392,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B52" t="str">
         <f>CONCATENATE("Goal_",Sheet1!A10)</f>
@@ -1395,7 +1401,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B53" t="str">
         <f>CONCATENATE("Goal_",Sheet1!A11)</f>
@@ -1404,7 +1410,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B54" t="str">
         <f>CONCATENATE("Goal_",Sheet1!A12)</f>
@@ -1413,7 +1419,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B55" t="str">
         <f>CONCATENATE("Goal_",Sheet1!A13)</f>
@@ -1422,7 +1428,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B56" t="str">
         <f>CONCATENATE("Goal_",Sheet1!A14)</f>
@@ -1431,7 +1437,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B57" t="str">
         <f>CONCATENATE("Goal_",Sheet1!A15)</f>
@@ -2298,129 +2304,172 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B43"/>
+  <dimension ref="A2:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F4" sqref="F4:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="27.21875" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1">
+    <row r="3" spans="1:6" ht="15" thickBot="1">
       <c r="A3" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1">
+    <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1">
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1">
       <c r="A5" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1">
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1">
+      <c r="F6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1">
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1">
       <c r="A8" s="7" t="s">
         <v>52</v>
       </c>
       <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1">
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1">
       <c r="A9" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1">
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1">
       <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1">
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1">
       <c r="A11" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1">
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1">
       <c r="A12" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1">
+      <c r="F12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1">
       <c r="A13" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1">
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1">
       <c r="A14" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1">
+      <c r="F14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1">
       <c r="A15" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1">
+      <c r="F15" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1">
       <c r="A16" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1">
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1">
       <c r="A17" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1">
+      <c r="F17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1">
       <c r="A18" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1">
+    <row r="19" spans="1:6" ht="15" thickBot="1">
       <c r="A19" s="7" t="s">
         <v>37</v>
       </c>
@@ -2428,19 +2477,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1">
+    <row r="20" spans="1:6" ht="15" thickBot="1">
       <c r="A20" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1">
+    <row r="21" spans="1:6" ht="15" thickBot="1">
       <c r="A21" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1">
+    <row r="22" spans="1:6" ht="15" thickBot="1">
       <c r="A22" s="7" t="s">
         <v>38</v>
       </c>
@@ -2448,19 +2497,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1">
+    <row r="23" spans="1:6" ht="15" thickBot="1">
       <c r="A23" s="8" t="s">
         <v>62</v>
       </c>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1">
+    <row r="24" spans="1:6" ht="15" thickBot="1">
       <c r="A24" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1">
+    <row r="25" spans="1:6" ht="15" thickBot="1">
       <c r="A25" s="7" t="s">
         <v>39</v>
       </c>
@@ -2468,19 +2517,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:6">
       <c r="A26" s="8" t="s">
         <v>64</v>
       </c>
       <c r="B26" s="14"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:6">
       <c r="A27" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B27" s="14"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:6">
       <c r="A28" s="10" t="s">
         <v>40</v>
       </c>
@@ -2488,19 +2537,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:6">
       <c r="A29" s="10" t="s">
         <v>66</v>
       </c>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:2" ht="15" thickBot="1">
+    <row r="30" spans="1:6" ht="15" thickBot="1">
       <c r="A30" s="11" t="s">
         <v>67</v>
       </c>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:2" ht="15" thickBot="1">
+    <row r="31" spans="1:6" ht="15" thickBot="1">
       <c r="A31" s="12" t="s">
         <v>41</v>
       </c>
@@ -2508,7 +2557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" thickBot="1">
+    <row r="32" spans="1:6" ht="15" thickBot="1">
       <c r="A32" s="13" t="s">
         <v>68</v>
       </c>
